--- a/src/active_learning/non_agreement_es.xlsx
+++ b/src/active_learning/non_agreement_es.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,52 +462,52 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>408957</v>
+        <v>890592</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ES_169946_1723-11</t>
+          <t>ES_819329_105467-2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>“Aproximadamente dos tercios de los niños que tienen TDAH seguirán ajustándose a los criterios de TDAH cuando sean adultos”, dice la Dra. Ruggiero. Pero, dice, eso no significa que los síntomas sigan siendo los mismos. “Los síntomas del TDAH son diferentes a medida que los niños crecen y las exigencias cambian”. Y con la ayuda adecuada, los niños pueden aprender habilidades que los ayuden a controlar los síntomas y reducir los efectos a medida que crecen.</t>
+          <t>Obtenga información sobre el Programa de desayuno escolar (SBP, por sus siglas en inglés) y encuentre información y recursos relacionados.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 1, 0, 1]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>959603</v>
+        <v>780043</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ES_1025129_131017-15</t>
+          <t>ES_674468_7557-16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No se han realizado estudios para ver si dextroanfetamina puede causar problemas en el comportamiento o aprendizaje para el niño.</t>
+          <t>El mismo autor en Japón, en el 2011 valoró el logro de motricidad gruesa en infantes trillizos (263 con peso al nacimiento&gt;2,000g, 858 con peso la nacimiento&lt;2,000g) concluyendo que los trillizos en general tienen un mayor riesgo de retraso en los indicadores motrices gruesos en comparación con hijos únicos independientemente de los factores relacionados con el nacimiento14.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -518,24 +518,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>761585</v>
+        <v>103113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ES_436460_56595-1</t>
+          <t>ES_433935_55492-5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No hay ningún médico cuyo apellido comience con dicha letra Q Q Buscar un médico cuyo apellido comience con una letra R R Buscar un médico cuyo apellido comience con una letra S S Buscar un médico cuyo apellido comience con una letra T T No hay ningún médico cuyo apellido comience con dicha letra U U Buscar un médico cuyo apellido comience con una letra V V Buscar un médico cuyo apellido comience con una letra W W No hay ningún médico cuyo apellido comience con dicha letra X X No hay ningún médico cuyo apellido comience con dicha letra Y Y No hay ningún médico cuyo apellido comience con dicha letra Z Z Por afecciones que se tratan No se encontraron resultados Por procedimientos realizados No se encontraron resultados Por idioma hablado No se encontraron resultados Restablece todos los filtros Consejos para la búsqueda Usa comillas para las frases. Haz clic en “Search” (buscar) aunque no haya sugerencias automáticas dentro del campo de búsqueda, ya que igual podrías obtener resultados. Mostrando 1-3 de 3 médicos disponibles Inicial del apellido: H Paul J. Hampel, M.D. hematólogo hematólogo oncólogo Rochester, MN Áreas de especialización: Inmunoterapia, Tratamiento de cáncer, terapia de células T con receptores de antígenos quiméricos , Medicamentos de ter...apia dirigida, Leucemia linfocítica crónica, Linfoma no Hodgkin, Linfoma de Hodgkin, Tricoleucemia Mostrar más áreas de especialización para Paul J. Hampel, M.D. Suzanne R. Hayman, M.D. internista hematólogo Rochester, MN Áreas de especialización: Mieloma múltiple, Amiloidosis Talal Hilal, M.B., B.Ch.</t>
+          <t>Garantizamos la continuidad de la atención desde la evolución clínica como recién nacido en la NICU hasta la primera infancia.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -546,136 +546,136 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>797257</v>
+        <v>123323</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ES_380149_46283-5</t>
+          <t>ES_593375_74188-5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Los médicos de Mayo Clinic analizan la investigación y la tecnología, como por ejemplo la impresión en 3D de modelos del corazón.</t>
+          <t>El objetivo de este estudio es aprender si la participación en un programa de ejercicio con un programa para bajar de peso reduce los signos y síntomas de PAD más que el programa de ejercicio solo. Para participar, debe tener entre 18 y 85 años, PAD y un índice de masa corporal (IMC) de más 28 pero de menos de 45. Los participantes también deben aceptar usar un teléfono inteligente y asistir a sesiones semanales del estudio. Este estudio se lleva a cabo en Evanston (Illinois); Nueva Orleans (Luisiana); and Minneapolis, Minnesota.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>293415</v>
+        <v>531514</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ES_772414_101805-1</t>
+          <t>ES_568590_66287-7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>¿Qué es esta prueba: En esta prueba, se mide la cantidad de hormona antidiurética (ADH, por su sigla en inglés) en la sangre.</t>
+          <t>Esas últimas semanas pueden marcar una gran diferencia. A las 39 o 40 semanas de embarazo, el cerebro de un bebé pesa un tercio más de lo que pesa a las 35 semanas. Los pulmones y el hígado también se desarrollan hasta las 39 semanas. Además, esas últimas semanas dan tiempo para que crezcan las capas de grasa debajo de la piel del bebé, lo que conserva su temperatura corporal luego del nacimiento.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
-        <v>946408</v>
+        <v>434649</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EN_886228_127718-4</t>
+          <t>ES_590050_72449-1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Since April 2021, the FDA has received more than 109,000 MDRs, including 426 reports of death, reportedly associated with the PE-PUR foam breakdown or suspected foam breakdown.</t>
+          <t>Insomnia Insomnio Insuficiencia cardíaca Insuficiencia respiratoria Interstitial Lung Diseases Iron-Deficiency Anemia La actividad física y el corazón La obesidad y la salud de las mujeres Marfan Syndrome Narcolepsia Narcolepsy Obesity and Women's Health Obesity Hypoventilation Syndrome Overweight and Obesity Peripheral Artery Disease Physical Activity and Your Heart Platelet Disorders Pneumonia Presión arterial alta Respiratory Failure Sarcoidosis Sickle Cell Disease Sleep Apnea Sleep Deprivation and Deficiency Sleep Disorder Treatments Sleep Studies Smoking and Your Heart Sobrepeso y obesidad Stents Strategies To Quit Smoking (-) Stroke The Heart The Lungs Tratamientos para trastornos sanguíneos (-) Treatments for Blood Disorders Vida saludable para el corazón Vitamin B12–Deficiency Anemia Vivir con presión arterial alta ¿Qué es el colesterol en la sangre? ¿Qué es la cardiopatía coronaria? ¿Qué es la presión arterial alta? ¿Qué es un ataque cardíaco? ¿Qué implica una vida saludable para el corazón? ¿Qué son el sobrepeso y la obesidad? + View More Filters Lifestyle and Education (-) CLEAR Blood Health Healthy Living &amp; Eating (DASH) Heart Health Sleep Health + View More Filters Delivery Method (-) CLEAR Available for Delivery Digital (Online Only) ━ View Less Filters FILTER BY KEYWORD Sort By: Date</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>1339216</v>
+        <v>394269</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EN_445441_64772-17</t>
+          <t>ES_587494_68582-3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Childbearing Women. HIV-1 antibody prevalence for childbearing women has been measured by using blinded serologic testing of blood samples collected on filter paper from newborns to measure maternal antibody. In the state of New York, preliminary results of 52,326 tests indicate an overall HIV-1 antibody prevalence of 0.8%. In New York City, one woman in 61 giving birth had HIV-1 antibody. An estimated 40% of these women passed the infection to their newborns. This survey was instrumental in promoting the recent institution of a New York policy to encourage counseling all women of childbearing age and to offer both counseling and testing to women contemplating pregnancy or in the early stages of pregnancy.</t>
+          <t>¿Tiene sobrepeso? Los trastornos del ritmo circadiano pueden causar sobrepeso y obesidad. Este estudio examina cómo la falta de sueño suficiente causa estas complicaciones. Para participar en este estudio, debe tener entre 20 y 40 años y debe tener sobrepeso pero no obesidad. Este estudio se lleva a cabo en Nueva York (Nueva York)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>177999</v>
+        <v>747420</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EN_86511_37801-16</t>
+          <t>EN_519955_86476-21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fisher AA, Pascher F, Kanof NB. Allergic contact dermatitis due to ingredients of vehicles. A vehicle tray for patch testing. Arch Dermatol 1971;104:286-90.</t>
+          <t>As with all medicines, some side effects have been associated with the use of flu antiviral drugs, including nausea, vomiting, dizziness, runny or stuffy nose, cough, diarrhea, headache, and some behavioral side effects.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -686,164 +686,164 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>465240</v>
+        <v>946311</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ES_500127_5033-9</t>
+          <t>EN_869053_123951-10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Los comités incluyen lo siguiente:\n- Análisis del Sistema Coordinado de Entrada y Derivación de Vivienda Basado en la Evaluación (CEA-BHRS): Analiza el sistema coordinado de entrada de la CoC.\n- Alineación con el HUD: Garantiza que las políticas, los procedimientos y la dirección de la CoC se ajustan a los requisitos y las prioridades federales. Los proveedores no pueden formar parte de este comité.\n- Experiencia vivida: Recopila comentarios de personas con experiencias vividas con personas sin hogar.\n- Proveedor de servicios: Recopila comentarios de los proveedores de servicios para personas sin hogar.\n- Liderazgo de jóvenes adultos: Brinda asesoramiento sobre formas de mejorar el sistema de asistencia para personas sin hogar para los jóvenes..</t>
+          <t>The mutated gene moves in an autosomal recessive pattern during fertilization when both parents pass a mutated gene onto their child. If only one parent passes the gene, the child will be a carrier of the genetic condition but they will not show symptoms of A-T. Two copies of the mutated gene are necessary for an A-T diagnosis.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>40568</v>
+        <v>1053376</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EN_169475_4390-10</t>
+          <t>ES_565246_66025-6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>There are a lot of great birth control options for breastfeeding women. New moms can choose from hormonal and non-hormonal methods. Here’s what you should know.</t>
+          <t>Científicos financiados por los NIH se propusieron determinar si este mismo tratamiento también podría ayudar a los pacientes con EPOC que tienen niveles moderadamente bajos de oxígeno en la sangre. Más de 700 pacientes con estas características se inscribieron en el estudio y fueron asignados al azar a dos grupos: uno recibió el tratamiento con oxígeno y el otro no.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B12" t="n">
-        <v>1122104</v>
+        <v>371745</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EN_1015779_179766-0</t>
+          <t>ES_683523_96360-14</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Find a Doctor Disclaimer: Katherine Weingartner, MD, is a graduate of the University of Vermont College of Medicine and completed her residency in pediatrics at the Yale School of Medicine/Yale-New Haven Children's Hospital. Prior to her residency, Dr. Weingartner earned a Bachelor of Science with Honors in Neuroscience from Trinity College in Hartford, CT. She is fluent in Spanish and is very committed to community service. Outside of the office, her interests include cooking and spending time outdoors with her family.</t>
+          <t>Para información general o sobre el proceso de solicitud para instructores de TYTAP, envíe un correo electrónico a tobacco.free@dshs.texas.gov.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B13" t="n">
-        <v>1311132</v>
+        <v>566636</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EN_499884_11541-16</t>
+          <t>ES_70337_16050-3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>During July 1, 2021–January 17, 2022, among 483 eligible infants in 20 pediatric hospitals in 17 states, 104 (22%) were excluded; 71 excluded infants were born to mothers partially vaccinated during pregnancy or vaccinated after delivery, 10 were born to mothers who received a third vaccine dose ≥14 days before delivery, and 23 were excluded for other reasons.¶¶ Among the remaining 379 hospitalized infants (176 case-infants and 203 control-infants), the median age was 2 months, 80 (21%) had at least one underlying medical condition, and 72 (22%) were born premature (Table 1). Among case-infants, 16% of mothers had received 2 COVID-19 vaccine doses during pregnancy, whereas 32% of control-infant mothers were vaccinated. Case- and control-infants had similar prevalences of underlying medical conditions (20% and 23%, respectively; p = 0.42) and prematurity (23% and 21%, respectively; p = 0.58). Case-infants were more commonly non-Hispanic Black (18%) and Hispanic (34%) than were control-infants (9% and 28%, respectively).</t>
+          <t>Cuando se trabaja con familias que esperan un bebé, enfrentarse una pérdida también es una posibilidad. Las familias que esperan un bebé que se identifican como de raza negra e indígenas tienen tasas más altas de mortalidad infantil y materna. Los determinantes sociales de la salud, incluido el racismo estructural y sistémico y otros tipos de opresión, están vinculados a la ocurrencia de este tipo de pérdidas. Entender este contexto es útil, ya que los determinantes sociales también están relacionados con la falta de acceso a fuentes de apoyo necesarias o preferidas para las familias y el personal que han experimentado una pérdida. Para obtener más orientación, consulte la página sobre los Servicios para mujeres y familias que esperan un bebé después de una pérdida.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>[1, 1, 0, 0]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>710824</v>
+        <v>484575</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ES_778356_102144-37</t>
+          <t>ES_128178_30747-2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Si su hijo tiene una visita de seguimiento, anote la fecha, la hora y el objetivo esta.</t>
+          <t>Este video está dirigido al personal y los profesionales de la salud de Head Start. Está diseñado para ayudar a entender lo significa estrés tóxico, cómo afecta a una persona y para informarse sobre cosas sencillas que se pueden hacer para ayudar a prevenirlo (video en inglés).</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>657427</v>
+        <v>785545</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ES_372971_45585-7</t>
+          <t>EN_660504_13541-0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Los trabajadores del campo, los friegaplatos, los limpiadores domésticos y otros trabajadores con bajos ingresos se están viendo muy afectados por la pérdida de hogares y empleos a causa de los incendios forestales que han devastado el norte de California este mes. Como expertos en derechos de los trabajadores, estamos reforzando nuestros recursos gratuitos en línea y servicios clínicos en respuesta. Para los inmigrantes indocumentados, los desafíos de esta... Continúa leyendo Ayuda legal gratuita para trabajadores de bajos ingresos afectados por los incendios forestales</t>
+          <t>DHHS (NIOSH) Publication Number 2015-143: The new Youth@Work—Talking Safety is a fun, free, and engaging curriculum that helps teachers and school/community-based job placement staff educate young people about the basics of job safety and health. The curriculum presents essential information and career-readiness skills through a focus on eight core competencies. The skills gained through the Talking Safety curriculum are transferable across industries and occupations and will help students stay safe and healthy at work now and throughout their lives.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -854,444 +854,444 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B16" t="n">
-        <v>241967</v>
+        <v>260510</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EN_799193_118450-6</t>
+          <t>ES_115445_26682-1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>How do I prepare for a fasting blood sugar test: To prepare for a fasting glucose test, you should have nothing to eat or drink (except water) for 8 to 12 hours. Your healthcare provider will tell you how long to fast.</t>
+          <t>Vea al equipo de Renovación significativa trabajar con proveedores de cuidado infantil familiar para proporcionar entornos de aprendizaje seguros para grupos de diferentes edades. Cree entornos que promuevan el desarrollo social y emocional de los niños.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B17" t="n">
-        <v>351889</v>
+        <v>861</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ES_288082_40665-52</t>
+          <t>ES_892365_118772-5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>El tratamiento quirúrgico en niños y adolescentes suele requerir pasar varios días en el hospital y limitar la actividad durante aproximadamente un año.</t>
+          <t>Estos tipos de muertes se pueden prevenir al utilizar sustancias químicas o métodos alternativos menos peligrosos, que eliminan el uso del cloruro de metileno. Si esto no es posible, los empleadores aún pueden prevenir las muertes y enfermedades por medio de prácticas de trabajo seguras, tales como contar con una ventilación adecuada, proveer protección respiratoria a los trabajadores, así como ropa y equipo protector, y proporcionarles capacitación en conformidad con la norma de cloruro de metileno de la OSHA (29 CFR 1910.1052External) y otras normas pertinentes como la de comunicación de peligros (29 CFR 1910.1200External) y la de equipo de protección personal (29 CFR 1910.132External).</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[1, 0, 0, 1]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B18" t="n">
-        <v>851488</v>
+        <v>542006</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EN_776380_115908-23</t>
+          <t>ES_91995_21495-2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Radiation therapy: Women who have been treated with radiation for cancer of their reproductive organs may have a slightly increased risk of developing kidney cancer.</t>
+          <t>Aprenda por qué es importante promover la salud oral durante las visitas al hogar y encuentre consejos que el personal de Head Start puede usar para promover la salud oral durante las visitas al hogar.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 1]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B19" t="n">
-        <v>240029</v>
+        <v>867534</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EN_179910_8457-3</t>
+          <t>ES_509561_6546-69</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The Committee on Community Health Services (COCHS) was founded as a sub-committee of the Council on Practice in 1967 and became a full committee in 1970. Some remember COCHS in the 1980s as the conscience of the Academy, forcing a continued emphasis on vulnerable populations such as Native American and rural children. Funding for pediatric health care was a concern, but the AAP recognized that there were multiple barriers to care. In 1986 the AAP launched Partnerships for Children (PFC), a program designed to ensure healthier outcomes through advocacy, education, public outreach and community action. As part of the emphasis on community action the Academy partnered with state chapters, local organizations, and practitioners.</t>
+          <t>Instalaciones municipales significativas (Significant Municipal Facilities). Aquellas plantas públicas de tratamiento de aguas residuales que descargan un millón de galones por día o más y son, por esto, consideradas por los estados poder tener el potencial de afectar sustancialmente la calidad de las aguas del medio receptor.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B20" t="n">
-        <v>296115</v>
+        <v>890638</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ES_11011_940-9</t>
+          <t>ES_461535_61593-1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Como ginecóloga y obstetra, he visto a muchas mujeres luchar con los cambios en el estado de ánimo después de tener un bebé. La gente suele pensar que el parto es un momento mágico para todas las madres y que apenas nace el bebé aflora el instinto maternal y mágicamente ya sabemos qué hacer. Para muchas mujeres, este no...</t>
+          <t>Muchos factores pueden interferir en una buena noche de sueño, desde el estrés laboral y las responsabilidades familiares hasta las enfermedades. No es de extrañarse que el sueño de calidad a veces sea difícil de lograr.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B21" t="n">
-        <v>197787</v>
+        <v>66196</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ES_469072_62275-5</t>
+          <t>ES_371493_45322-1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>En casos leves de síndrome del bebé sacudido, el niño puede verse normal después de ser sacudido, pero con el tiempo puede manifestar problemas de salud o de comportamiento.</t>
+          <t>Lo hemos hecho mostrando a las empresas las ventajas de contar con políticas sólidas en materia de permisos por embarazo y paternidad, adaptación de la lactancia y conciliación de la vida laboral y familiar, y honrando a las que apoyan a las familias con nuestros premios anuales a la excelencia.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B22" t="n">
-        <v>1055463</v>
+        <v>1279941</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ES_173922_1984-3</t>
+          <t>EN_329347_54655-726</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aunque es cierto que los terrores nocturnos ocurren con más frecuencia en niños de 3 a 7 años, se han observado también en niños de hasta 18 meses. Al parecer, los niños varones los experimentan con mayor frecuencia, y existen algunos factores de riesgo que pueden predecir los terrores nocturnos, como fiebre, tomar un medicamento nuevo, ansiedad, estar en un lugar desconocido y sentirse demasiado cansado.</t>
+          <t>Noble RC. Infectiousness of pulmonary tuberculosis after starting chemo- therapy: review of the available data on an unresolved question. Am J Infect Control 1981;9:6-10.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B23" t="n">
-        <v>536444</v>
+        <v>785498</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EN_483480_72139-9</t>
+          <t>EN_740978_112757-6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The miniature pacemakers passed a proof-of-concept simulation and the experimental model is now ready for a second phase of testing, which will analyze how the tailored devices hold up over time, prior to clinical testing and availability for infants.</t>
+          <t>Statistics show that there were 7,860 tuberculosis cases reported in the U.S. in 2021. The national incidence rate is 2.4 cases per 100,000 people.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B24" t="n">
-        <v>925345</v>
+        <v>351765</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EN_461132_66032-19</t>
+          <t>ES_930002_122869-25</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bloom AD, Paul NW, eds. Guidelines for studies of human populations exposed to mutagenic and reproductive hazards: proceedings of conference held January 26-27, 1981, in Washington, D.C. sponsored by Centers for Disease Control. White Plains, New York: March of Dimes Birth Defects Foundation, 1981.</t>
+          <t>¿Cómo debo almacenar o desechar este medicamento: Mantenga este medicamento en su empaque original, bien cerrado y fuera del alcance de los niños. Guarde las tabletas, la solución y las tabletas de desintegración oral a temperatura ambiente y lejos del exceso de calor y humedad (no en el baño). Guarde las tabletas de desintegración oral en su empaque sellado, y úselas inmediatamente después de abrir el paquete. Guarde las tabletas con sensor a temperatura ambiente; no las guarde lugares con alta humedad. Deseche cualquier solución no utilizada de aripiprazol 6 meses después de abrir el frasco o cuando haya transcurrido la fecha de vencimiento que se indica en el frasco, lo que sea antes.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B25" t="n">
-        <v>797256</v>
+        <v>635288</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ES_211660_38549-0</t>
+          <t>ES_690516_97409-21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Generalidades de la prueba: La prueba de la gonadotropina coriónica humana (hCG, por sus siglas en inglés) se realiza para detectar la hormona hCG en la sangre o la orina. Algunas pruebas de hCG miden la cantidad exacta. Otras solo verifican la presencia de la hormona. La hCG se produce en la placenta durante el embarazo. La prueba puede usarse para ver si una mujer está embarazada. O se puede hacer como parte de una prueba de detección de anomalías congénitas (de nacimiento).</t>
+          <t>La HHSC de Texas reconoce a los ganadores del premio Innovadores para la Tercera Edad 2022. Este premio distingue a las organizaciones y personas que han tenido un impacto positivo en la vida de los adultos mayores en Texas.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B26" t="n">
-        <v>314603</v>
+        <v>22403</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ES_686367_96782-1</t>
+          <t>ES_721057_99151-14</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Primeros pasos importantes:\n- Póngase en contacto con un grupo de apoyo local. Los grupos de apoyo pueden ser un valioso recurso para obtener información sobre una gran diversidad de temas, como los centros para el tratamiento y los programas específicos que podrían estar disponibles en su zona. Localice los grupos de apoyo cerca de usted.\n- Anote cada día en un diario los cambios mentales y físicos. Haga una lista de preguntas para el médico u otros miembros del equipo de tratamiento. Lleve un registro de los tratamientos, los medicamentos y los resultados.\n- Establezca un sistema de apoyo de familiares y amigos. Organice a familiares y amigos para que lo visiten, apoyen al grupo familiar y ayuden con lo necesario para prepararse para el futuro.\n- Comuníquese con el administrador de casos o con el trabajador social de su hospital. Identifique al administrador de casos o al trabajador social que trabajará con usted. Hable con el administrador del caso o con los trabajadores sociales sobre el progreso y las posibles necesidades después del alta. Obtenga ayuda para identificar los apoyos y servicios que podrían estar disponibles después del alta.\n- Llame al 2-1-1 o marque 2-1-1 Texas para obtener información sobre recursos comunitarios y servicios médicos que no sean de emergencia. El 2-1-1 es un recurso de información gratuita que ofrece además derivaciones a centros de salud y servicios humanos y a organizaciones comunitarias (proveedores públicos, privados y de servicios humanos sin fines de lucro).</t>
+          <t>Si el proveedor de atención médica recomienda suplementos:\n- Use la propia leche extraída primero para cualquier alimentación alternativa.\n- Use un método de alimentación alternativo si lo recomienda el proveedor de atención médica o un IBCLC, un consultor de lactancia certificado por la Junta Internacional de Examinadores Consultores de Lactancia. Hay muchas opciones alternativas de alimentación, así que hágales saber si una recomendación no se siente adecuada para usted. Los métodos de alimentación alternativos incluyen:\n- Varios métodos requieren la ayuda de un profesional, como un IBCLC, para que pueda usarlos correctamente. Dependiendo del bebé y la causa del problema, algunos métodos pueden funcionar mejor que otros. También consulte con el IBCLC qué tipo de tetina de biberón usar si le da cualquier suplemento por ese medio. Algunos tipos de tetinas de biberón tienen menos probabilidades de interferir con la lactancia materna que otras.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B27" t="n">
-        <v>814655</v>
+        <v>917608</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EN_1166982_21553-90</t>
+          <t>ES_368155_44675-5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>76. Stone JW, Das BC. Investigation of an outbreak of infection with Acinetobacter calcoaceticus in a special care baby unit. J Hosp Infect 1986;7:42--8.</t>
+          <t>¿Cómo puedo acceder a estos derechos y cómo encajan entre sí: Consulte los recursos de Legal Aid at Work para obtener más información.Llame a nuestro teléfono de ayuda si tiene preguntas sobre sus derechos laborales relacionados con el embarazo, la crianza o el cuidado de los hijos al (800) 880-8047.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[0, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B28" t="n">
-        <v>331389</v>
+        <v>704499</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EN_1400312_302228-14</t>
+          <t>EN_412851_61999-17</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Of course, if your child gets cancer later in life (possibly partly due to radiation exposure), this would need its own treatment.</t>
+          <t>CDC. Prevention and control of influenza: recommendations of the Advisory Committee on Immunization Practices (ACIP). MMWR 1997;46(no. RR-9) (in press).</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B29" t="n">
-        <v>995244</v>
+        <v>824665</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EN_438316_64158-22</t>
+          <t>EN_95196_39460-35</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Diaz T, Chu SY, Byers RH, et al. The types of drugs used by HIV-infected injection drug users in a mulitstate surveillance project: implications for intervention. Am J Public Health 1994; 84:1971-5.</t>
+          <t>Simplified the guidelines to treatment (intravenous [IV], intramuscular [IM], or oral options) and prophylaxis scenarios, similar to clinical guidelines for other biologic threats. Previously, guidelines were divided into contained casualty (all IV or IM treatment) versus mass-casualty (all oral treatment) scenarios (8). The rationale behind this shift is that it might not be clear initially how large the outbreak will be (i.e., whether it will remain a contained casualty event or evolve to a mass-casualty event). Because of this uncertainty, it might be advisable at the outset to treat patients with mild-to-moderate illness with oral therapy to conserve IV medications and supplies and avoid the risks for IV access to the patient, such as infection and bleeding. This new approach provides greater flexibility for responding to uncertain situations.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B30" t="n">
-        <v>1195652</v>
+        <v>606704</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EN_1084187_195362-46</t>
+          <t>ES_209542_38492-11</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Le HN, Perry DF, Sheng X. Using the internet to screen for postpartum depression. Matern Child Health J. 2009 Mar;13(2):213-221.</t>
+          <t>¿Cómo se trata: El tratamiento del asma se divide en dos partes, que se describen en su plan de acción para el asma. Las metas son:</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B31" t="n">
-        <v>282256</v>
+        <v>919507</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ES_937853_123547-4</t>
+          <t>EN_69750_34401-6</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Preparación para el examen: No se necesita ninguna preparación especial.</t>
+          <t>The work surface of the steel-frame platform measured 7 feet wide by 50 feet long. It consisted of a plywood-surfaced main platform for holding materials (bricks, mortar, etc.), 5.5 feet wide by 50 feet long, and a wood-planked walkway platform (“foot boards”) 20 inches wide by 50 feet long where workers stood to lay the brick. The walkway was positioned 18 inches below the surface of the main platform and extended along the working face of the building at about 4 inches clearance. The outboard side and ends of the entire work platform were surrounded by a 42-inch-high steel frame/wire mesh guardrail and fence. Under normal working conditions, a guardrail is not installed on the walkway side of the platform.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1302,24 +1302,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B32" t="n">
-        <v>199448</v>
+        <v>28192</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ES_1053677_9796-67</t>
+          <t>ES_120534_28261-0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tal visión contrasta con las posturas optimistas del patentamiento universitario como mecanismo para detonar un mayor acercamiento de la academia con la industria, pero también es contraria a las posiciones que descalifican la emergencia del patentamiento en las universidades y entienden este proceso como una forma de sumisión a los intereses del capital financiero y tecnológico. Así pues, las patentes, dada su condición de indicadores tecnológicos, únicamente deben considerarse como un eslabón adicional de una cadena que conduce a la innovación tecnológica.</t>
+          <t>Explore este documento para encontrar ejemplos de sistemas estatales y políticas que apoyan el reclutamiento y retención de una fuerza laboral altamente calificada. Además, encuentre más investigación y recursos sobre el tema.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1330,47 +1330,47 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B33" t="n">
-        <v>141814</v>
+        <v>606484</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ES_680514_95889-5</t>
+          <t>ES_64407_14955-27</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>• En algunos centros de salud, puede encontrar personas protestando y algunas de las clínicas tiene escoltas que la llevaran al interior de la clínica. Por favor no deje que esto le moleste.</t>
+          <t>Conclusión: No hay respuestas sencillas para estos problemas. Desde una perspectiva política, algunas personas se inclinan a asegurar que las leyes de protección laboral benefician a los proveedores de cuidado infantil familiar que claramente no están operando por cuenta propia. Los que toman esta posición creen que dichos proveedores gestionan negocios que están controladas por otros hasta en los pequeños detalles y ven pocas diferencias entre estos proveedores y el personal de los centros de cuidado infantil familiar.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B34" t="n">
-        <v>756169</v>
+        <v>1034886</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ES_217189_38702-20</t>
+          <t>EN_1043886_186860-2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Muchos niños tienen síntomas que empeoran por la noche (asma nocturna). En todas las personas, la capacidad o funcionamiento pulmonar cambia a lo largo del día y de la noche. En los niños con asma, a menudo esto es muy notorio, especialmente durante la noche. Y la tos y la falta de aire nocturnas ocurren con frecuencia. En general, despertarse por la noche debido a la falta de aire o a la tos indica que el asma está mal controlada.</t>
+          <t>At the Healthcare Transformation Lab (HTL) at Mass General, our team partners with people from diverse backgrounds — health care, engineering, design and business — to implement new ideas that improve health care delivery.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1380,25 +1380,25 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B35" t="n">
-        <v>636896</v>
+        <v>719858</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ES_895928_119062-10</t>
+          <t>EN_1175536_225070-12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Algunos problemas de audición comienzan más adelante, de manera que pide que le hagan a tu hijo pruebas si notas algún problema. Aprende más sobre los signos de pérdida de audición en los bebés y en los niños.</t>
+          <t>CDT Mayo Clinic Q&amp;A podcast: Breaking down COVID-19 vaccine booster approvals Sept. 29, 2021, 12:20 p.m. CDT COVID-19 Queries: Can I develop a COVID infection from the vaccine? Sept. 27, 2021, 03:30 p.m. CDT Mayo Clinic will begin offering booster vaccines Sept. 24, 2021, 03:57 p.m. CDT Mayo Clinic leads biorepository core for new nationwide research on long-term symptoms of COVID-19 Sept. 20, 2021, 07:23 p.m. CDT COVID Queries: Delta breakthrough infections Sept. 20, 2021, 02:00 p.m. CDT Flu shots and COVID-19 Sept. 17, 2021, 03:00 p.m. CDT Mayo Clinic Q and A: COVID-19 vaccine boosters and third doses Sept. 16, 2021, 01:00 p.m. CDT Mayo Clinic Q&amp;A podcast: Listener mailbag -- COVID-19 questions answered Sept. 15, 2021, 12:38 p.m. CDT COVID-19 variants mu, delta and what to know about mutations Sept. 10, 2021, 04:30 p.m. CDT Being vaccinated for COVID-19 means protection against more than severe illness Sept. 07, 2021, 06:56 p.m. CDT Mayo Clinic study highlights development of remote patient monitoring program during COVID-19 pandemic Sept. 02, 2021, 04:24 p.m. CDT 9-2-2021 COVID-19 Media Only News Briefing: Ask the Mayo expert Sept. 02, 2021, 03:30 p.m. CDT Mayo Clinic Q&amp;A podcast: COVID-19 modeling shows 100,000 people in the U.S. could die over the next 3 months Sept. 01, 2021, 11:59 a.m. CDT Mayo Clinic urges cancer patients to seek third dose of mRNA COVID-19 vaccine Aug. 31, 2021, 04:56 p.m. CDT 3 things you can do to stop the spread of COVID-19 regardless of whether you're vaccinated Aug. 31, 2021, 01:00 p.m.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1408,81 +1408,81 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B36" t="n">
-        <v>624131</v>
+        <v>566677</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ES_532007_64756-0</t>
+          <t>ES_971948_125917-4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Supervivencia y cuidados de apoyo - Temas y relatos: Noticias sobre las investigaciones que afectan a pacientes con cáncer y a supervivientes de cáncer. Los temas incluyen el control de los efectos secundarios del tratamiento, la preservación de la fecundidad y los efectos duraderos del cáncer.</t>
+          <t>Esta terapia se usa principalmente para:\n- Cáncer avanzado que se ha propagado más allá de la glándula prostática\n- Cáncer que no ha respondido a la cirugía o a la radiación\n- Cáncer que ha reaparecido.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B37" t="n">
-        <v>1008553</v>
+        <v>1053385</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ES_796386_103509-12</t>
+          <t>ES_790109_103107-3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A continuación, se incluye una lista de consejos para los pacientes, los padres y los hermanos que puede ayudarlos a lidiar con sus emociones, según la edad del niño con cáncer y la edad de los hermanos:</t>
+          <t>Descongele la leche materna colocando el recipiente de recolección en el refrigerador durante varias horas o toda la noche.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B38" t="n">
-        <v>271593</v>
+        <v>795770</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ES_204569_38378-33</t>
+          <t>EN_634227_105121-5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>El Grupo Especial de Servicios Preventivos de los EE. UU. (U.S. Preventive Services Task Force o USPSTF, por sus siglas en inglés) recomienda la evaluación de los adultos de 18 años de edad o mayores para detectar la presión arterial alta.nota 5 Pueden revisarle la presión arterial durante cualquier visita médica de rutina.</t>
+          <t>Symptoms: Mumps is typically associated with swollen parotid glands which occur in 60 to 70 percent of cases and more commonly occur bilaterally, but can appear unilaterally. The swollen glands tend to appear about 16 to 18 days after exposure and can be preceded by non-specific symptoms, such as fever, headache, malaise, myalgia and anorexia. Children younger than 5 years of age often experience symptoms typical of lower respiratory disease; adults are more likely to have asymptomatic infections.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1492,109 +1492,109 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B39" t="n">
-        <v>785520</v>
+        <v>1298751</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EN_1091292_196291-33</t>
+          <t>EN_878644_126371-6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Side effects of the MMR vaccine: The MMR vaccine is safe and effective. Most people have no side effects.</t>
+          <t>My name is Lauren, I am from Ohio, and I am allergic to dairy, egg, and kiwi. I am 15 years old and have been a part of FARE’s Tag Team for two years to spread food allergy awareness. I enjoy reading, writing, and volunteering.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B40" t="n">
-        <v>721958</v>
+        <v>553346</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EN_952422_159171-23</t>
+          <t>EN_442405_64517-3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Stay positive. Many people who go through cancer treatments later have children. Others become parents through adoption or other methods. By thinking about the many different options for parenthood, you can be realistic and positive at the same time. Planning for the future helps you heal. And, if you are having sex, you'll still need to use condoms to protect against STDs.</t>
+          <t>A team consisting of a supervisor and two disease intervention specialists familiar with the community visited the sites and was responsible for 1) obtaining specimens on-site for serologic testing for syphilis and human immunodeficiency virus (HIV); 2) ensuring treatment of all persons determined to have been infected with or exposed to an STD; and 3) collecting and maintaining data for case-finding and follow-up, including names and aliases of identified syphilis patients and their sex partners and sites where high-risk sexual contact or illicit drug use were known to occur (e.g., lists of crack motels or crack houses).</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0]</t>
+          <t>[1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B41" t="n">
-        <v>952391</v>
+        <v>824664</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ES_305676_41151-18</t>
+          <t>EN_658995_107299-7</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Se han definido tres niveles de riesgo:\n- El grupo de alto riesgo. Esto incluye a las personas que tienen el VIH, aquellas que han tenido un contacto cercano reciente con una persona que tiene TB activa y aquellas que tienen síntomas o una radiografía de pecho (tórax) que muestra TB. Otras personas con alto riesgo de tuberculosis incluyen a quienes toman medicamentos que contienen corticosteroides durante mucho tiempo o a las personas que toman productos biológicos (que se usan para tratar la artritis reumatoide y la enfermedad de Crohn).\n- El grupo de riesgo moderado. Esto incluye a personas que recientemente se han mudado desde un país o que han viajado a un país con un alto índice de TB, aquellas que consumen drogas ilegales mediante inyecciones (personas que consumen drogas intravenosas), personas que viven en hogares para ancianos, trabajadores de hospitales, de hogares para ancianos, de escuelas y de prisiones, niños menores de 4 años, niños (de 4 a 18 años) que están expuestos a adultos con alto riesgo y personas desamparadas. Otras personas con riesgo moderado de tener tuberculosis incluyen aquellas que tienen un peso corporal que se encuentra un 10% o más por debajo de su peso corporal ideal y las personas que tienen insuficiencia renal, diabetes, leucemia, cáncer o aquellas a las que se les ha extraído parte del estómago (gastrectomía).\n- El grupo de bajo riesgo. Esto incluye a personas que no tienen ninguna posibilidad de exposición a la TB mencionada en los otros grupos de riesgo..</t>
+          <t>About 1% of adult men and people AMAB will get a hydrocele.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B42" t="n">
-        <v>224773</v>
+        <v>41870</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ES_676324_95151-12</t>
+          <t>ES_515156_64369-6</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Su enfermera o médico hablará con usted sobre las relaciones sexuales que mantiene, la protección que utiliza y su historial médico. También le harán pruebas de VIH y otras STI, y le harán pruebas de los riñones para asegurarse de que funcionan bien.</t>
+          <t>“El consumo de tabaco por los padres daña la salud tanto de ellos como de los niños, y [en las familias de bajos ingresos] empeora el ciclo de la pobreza”, dijo el doctor Jonathan Winickoff del Hospital General para Niños de Massachusetts, quien diseñó el programa CEASE y es el investigador principal del estudio CEASE.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1604,282 +1604,282 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B43" t="n">
-        <v>547112</v>
+        <v>780851</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ES_739620_99759-43</t>
+          <t>EN_1221766_279060-25</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Reparación en el laboratorio de cateterismo o procedimiento de cierre. Una vez finalizado el procedimiento, se retirarán el o los catéteres. Se colocarán varias gasas estériles y un gran trozo de cinta médica sobre el punto donde se insertó el catéter para evitar la hemorragia. En algunos casos, se puede usar una pesa plana o una bolsa de arena para mantener presionado el punto del cateterismo y reducir la posibilidad de hemorragia. Si se utilizaron vasos sanguíneos de la pierna, se mantendrá la pierna del bebé en posición recta durante algunas horas después del procedimiento para reducir al mínimo la posibilidad de hemorragia en el punto de cateterismo.</t>
+          <t>However, this overdose can be deadly or can result in permanent brain damage if treatment is delayed and a large amount of oxycodone and hydrocodone is taken.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B44" t="n">
-        <v>886736</v>
+        <v>785530</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EN_1260458_281919-2</t>
+          <t>EN_473165_67739-4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>How to Prepare for the Test: Your provider may tell you that you need to limit your fluid intake 12 to 14 hours before the test.</t>
+          <t>How It Works: Each submission strengthens the dataset. Member hospitals are encouraged to consistently submit data to maintain reporting and benchmarking efforts. Participants will receive unblinded, hospital-specific results.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B45" t="n">
-        <v>319915</v>
+        <v>704491</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ES_4796_431-2</t>
+          <t>EN_1421335_307036-5</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>¿Cómo se hace la angiografía de fluoresceína: Por lo general, la AF se hace en el consultorio del oftalmólogo. Normalmente requiere menos de 30 minutos. Se realiza así:</t>
+          <t>Medicaid expansion also is linked with reducing the socioeconomic disparity in access to inpatient rehabilitative care and the disparity in in-hospital mortality between Black and White patients.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1]</t>
+          <t>[1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B46" t="n">
-        <v>15787</v>
+        <v>905432</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EN_1231156_279723-12</t>
+          <t>ES_645150_91453-4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Keep moving and walking once you get home. Try not to sit for more than 45 minutes at a time. Get up and move around after 45 minutes if you will be sitting longer.</t>
+          <t>Si calificas para ayuda financiera, puede que te pidan llevar algunos documentos al centro de salud.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B47" t="n">
-        <v>946394</v>
+        <v>484033</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EN_1422370_307272-2</t>
+          <t>ES_345423_42576-25</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>At Advanced Behavioral Therapy, we are dedicated to your child’s advancement and growth. So, helping your child make solid, steady progress in their development is our top priority.</t>
+          <t>La leche de fórmula puede ser cara. ¿Cómo puedo ahorrar dinero: Compre en varios establecimientos diferentes para encontrar las mejores ofertas de la leche que usted escoja para su hijo:</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B48" t="n">
-        <v>1022572</v>
+        <v>785499</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ES_627229_87879-7</t>
+          <t>EN_722968_111546-3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>En general, puedes conseguir condones económicos o gratuitos en los centros de salud de Planned Parenthood, en clínicas de planificación familiar, el departamento de salud local, centros comunitarios, centros de salud universitarios o el consultorio de tu doctorx.</t>
+          <t>The bad news: It was an aggressive form of the disease caused by a gene mutation. The good news: It could be treated with a brand new chemotherapy drug that the U.S. Food and Drug Administration (FDA) had approved the same day Matt was diagnosed.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B49" t="n">
-        <v>897270</v>
+        <v>925498</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ES_306107_41160-52</t>
+          <t>ES_936862_123473-5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Durante cada visita de seguimiento, su médico evaluará:\n- La intensidad del dolor articular.\n- Cuánto dura la rigidez por la mañana.\n- La cantidad de articulaciones activamente inflamadas.\n- Lo bien que está funcionando usted.\n- Resultados de pruebas de laboratorio..</t>
+          <t>Las fuentes obvias de gluten incluyen:\n- Alimentos empanizados\n- Panes, roscas de pan, croissant y panecillos\n- Pasteles, rosquitas fritas y tortas\n- Cereales (la mayoría)\n- Galletas y muchos refrigerios comprados en tiendas, como papitas fritas y tostadas de tortilla\n- Salsas\n- Hojuelas y barquillos\n- Pasta y pizza (aparte de pasta y masa de pizza sin gluten)\n- Sopas (la mayoría)\n- Rellenos.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B50" t="n">
-        <v>1070832</v>
+        <v>675238</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EN_1401_177-16</t>
+          <t>EN_1024550_181699-3</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>If you want to breastfeed and are having trouble, work with your ob-gyn or lactation counselor. They can help address your baby’s latch, any issues with your pump parts and pumping technique, and other ways to increase your milk supply.</t>
+          <t>Making men’s health a priority is the first step to closing the sex gap and building healthier communities.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B51" t="n">
-        <v>1136272</v>
+        <v>87980</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EN_608408_99332-68</t>
+          <t>EN_528094_87386-0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2017: Wood SM, Dowshen N, Gowda C, Lee S, Radcliffe SJ, Gross R: Potential for HIV Transmission Among Adolescents and Young Adults Receiving Antiretroviral Therapy. 9th IAS Conference on HIV Science, Paris, France July 2017 Notes: Oral Abstract Presentation. Accepted March 24, 2017.</t>
+          <t>Conflicts of Interest: The Children’s Hospital of Philadelphia is committed to conducting its affairs in accordance with the highest ethical and legal standards. In order to maintain these standards, it is the policy of the Hospital that potential, perceived and actual conflicts of interest are to be avoided. A conflict of interest is any circumstance where personal, professional, financial or other private interests of a person (or institution) do or have the potential to compromise or bias the exercise of professional judgment or obligations, or may be perceived as doing so.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>511334</v>
+        <v>113694</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ES_817593_105070-7</t>
+          <t>EN_362710_56150-17</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Siempre que la petición o certificación de condición laboral fuera “de posible aprobación al momento de presentarla”, usted puede permanecer exento (“grandfathered”) si:\n- Fallece el peticionario;\n- El cónyuge que presentó la solicitud y usted se divorcian;\n- Cierra el negocio del empleador que presentó la certificación de condición laboral o el Formulario I-140;\n- El peticionario o el empleador decide retirar la petición o la certificación de condición Laboral, o\n- El peticionario o el empleador no puede mantener de otra manera la petición o la certificación de condición laboral..</t>
+          <t>† Accommodation and food services sector comprises establishments providing customers with lodging and/or preparing meals, snacks, and beverages for immediate consumption, and includes two industries: accommodation and food serving and drinking places. Additional information available at ftp://ftp.cdc.gov/pub/Health_Statistics/NCHS/Datasets/NHIS/NAICS_Sectors_and_Subsectors.pdf.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1890,108 +1890,108 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>861811</v>
+        <v>785533</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ES_818532_105275-8</t>
+          <t>EN_1064860_190933-11</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Para abordar estos problemas de manera más amplia, los departamentos anuncian la creación del Grupo de Trabajo de Protección del Trabajador H-2B (Taskforce) convocado por la Casa Blanca. La labor del grupo de trabajo se centrará en (1) las amenazas a la integridad del programa H-2B, (2) las vulnerabilidades fundamentales de los trabajadores H-2B, incluida su capacidad limitada para dejar un empleo donde es objeto de abuso sin poner en peligro su estatus migratorio, y (3) el uso indebido del programa para evitar la contratación de trabajadores estadounidenses. Los departamentos evaluarán una variedad de opciones de políticas para abordar estos problemas y brindarán una oportunidad para que grupos interesados de relevancia ofrezcan sus comentarios. La labor del grupo de trabajo se basará en los esfuerzos en curso en ambos departamentos para reformar los programas de visas temporales H-2. En los próximos meses, DHS también planea emitir una notificación de reglamentación propuesta relacionada con los programas H-2, que incorporará políticas que fortalecen las protecciones para los trabajadores H-2.</t>
+          <t>This study was supported in part by the National Institutes of Health.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B54" t="n">
-        <v>1327042</v>
+        <v>1215557</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EN_601506_98336-8</t>
+          <t>EN_439321_64254-3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>For a step-by-step guide to pumping at the hospital; information about how to collect, store and transport you milk; and details about sterilizing your pump kit, see pumping and storing your milk.</t>
+          <t>Stool samples obtained from 20 ill persons were analyzed by the Division of Microbiology of the North Dakota State Department of Health and Consolidated Laboratories. Escherichia coli, serotype O157:H7, was isolated from eight of the samples. The positive samples were collected during August 2-4, from 1 to 4 days after onset of symptoms; negative samples were obtained 4-20 days after onset of symptoms. Analysis by CDC confirmed the isolate results and detected both Shiga-like toxins I and II (verocytotoxin 1 and 2).</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B55" t="n">
-        <v>946342</v>
+        <v>95773</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EN_990643_17436-15</t>
+          <t>EN_193965_46894-30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tips for getting fit:\n- Talk to your doctor about how much and what kind of physical activity is right for you.\n- Find opportunities to increase physical activity regularly in ways that meet your needs and abilities.\n- Start slowly, based on your abilities and fitness level (e.g. be active for at least 10 minutes at a time, slowly increase activity over several weeks, if necessary).\n- Avoid inactivity. Some activity is better than none!.</t>
+          <t>From baseline to post-curriculum, decreased FBG was associated with an increased healthy food score and decreased unhealthy food score. From baseline to the first annual assessment, the negative association between FBG and a healthy food score was not maintained, but the positive association with the unhealthy food score was still evident. A decrease in triglycerides and LDL was associated with an increased healthy food score post-curriculum but not at the first annual assessment. A decrease in triglycerides was associated consistently with a decreased unhealthy food score at post-curriculum and at first annual assessment. No consistent significant relationships were observed for SBP, DBP, or HDL with food scores post-curriculum or at first annual assessment.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B56" t="n">
-        <v>605321</v>
+        <v>462066</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EN_88024_38090-122</t>
+          <t>EN_1050055_188192-26</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Commercial vendors and the general public need to be aware that commercially bottled water should be stored off the floor and away from any chemical products. In a third WBDO (Florida, January 2003), a large container of commercially bottled water from which multiple persons were served was contaminated at the point of use after the bottle had been opened, underscoring the vulnerability of shared bottles or containers and the importance of practicing good hygiene. A similar outbreak involving a shared container (Michigan, September 2003) further illustrates this problem; however, this WBDO was not associated with commercially bottled water.</t>
+          <t>At present we do not offer any groups for 14-18-year-olds, but we are actively working to build a group therapy program for these patients.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2002,52 +2002,52 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>896206</v>
+        <v>218024</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ES_1006478_127344-6</t>
+          <t>EN_305146_53615-8</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Su médico o farmacéutico le dará la hoja de información del fabricante para el paciente (Guía del medicamento) cuando inicie el tratamiento con fentermina y topiramato, y cada vez que vuelva a surtir su receta médica. Lea atentamente la información, y si tiene alguna duda, pregúntele a su médico o farmacéutico. También puede visitar el sitio web de la Administración de Alimentos y Medicamentos (FDA, Food and Drug Administration) (http://www.fda.gov/Drugs/DrugSafety/ucm085729.htm), o el sitio web del fabricante para obtener la Guía del medicamento.</t>
+          <t>Advances also have been made in the understanding of the pathogenesis of perinatal HIV-1 transmission. Most perinatal transmission likely occurs close to the time of or during childbirth (15). Additional data that demonstrate the short-term safety of the ZDV regimen are now available as a result of follow-up of infants and women enrolled in PACTG 076; however, recent data from studies of animals concerning the potential for transplacental carcinogenicity of ZDV affirm the need for long-term follow-up of children with antiretroviral exposure in utero (16).</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>636897</v>
+        <v>785531</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ES_673648_7512-25</t>
+          <t>EN_208365_47463-38</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tenga en cuenta que el preprint de un artículo (redacción antes de ser remitida a una publicación) puede compartirse en cualquier momento y lugar siguiendo las indicaciones de Elsevier sobre cómo compartir. Compartir su manuscrito prepublicado en un servidor de preprints, por ejemplo, no se considera publicación previa (para más información, consulte 'Publicación múltiple, redundante o concurrente').</t>
+          <t>Author Information: Corresponding Author: J. Jane S. Jue, MD, MSc, ECRI Institute, 5200 Butler Pike, Plymouth Meeting, PA 19462. Telephone: 610-825-6000. E-mail: janejuemd@gmail.com. At the time of this study, Dr Jue was affiliated with the Department of Veterans Affairs, Philadelphia VA Medical Center in Philadelphia, Pennsylvania, and with the Robert Wood Johnson Foundation Clinical Scholars Program at the University of Pennsylvania School of Medicine in Philadelphia, Pennsylvania.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2058,164 +2058,164 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>511335</v>
+        <v>501851</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ES_892486_118778-0</t>
+          <t>EN_617836_100952-9</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Prevención de las enfermedades relacionadas con el calor o muerte de trabajadores que se desempeñan al aire libre: DHHS (NIOSH) publicación N.º 2013-143</t>
+          <t>Parking: We offer limited free parking at our office. Please arrive early to ensure you have ample time to find a parking space.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B60" t="n">
-        <v>488210</v>
+        <v>785528</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EN_1189716_251608-1</t>
+          <t>EN_896385_131680-30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Expertise and rankings: Mayo Clinic cardiologists and heart and cardiovascular surgeons in the Valvular Heart Disease Clinic have extensive experience diagnosing and treating people with pulmonary valve disease and other types of heart valve disease. Pediatric cardiologists have experience treating children with pulmonary valve disease and other heart diseases at Mayo Clinic's campus in Minnesota.</t>
+          <t>Kreps, G. L., &amp; Sparks, L. (2008). Meeting the health literacy needs of immigrant populations. Patient Education and Counseling, 71(3), 328–332.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B61" t="n">
-        <v>888231</v>
+        <v>245677</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EN_1282474_284377-0</t>
+          <t>EN_252494_52103-11</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Summary: Impetigo is a skin infection caused by bacteria. It is usually caused by staphylococcal (staph) bacteria, but it can also be caused by streptococcal (strep) bacteria. It is most common in children between the ages of two and six. It usually starts when bacteria get into a break in the skin, such as a cut, scratch, or insect bite.</t>
+          <t>Remarks: Contact the court where the divorce occurred to obtain a copy of the divorce record. For more information, please click to send an e-mail.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1]</t>
+          <t>[0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B62" t="n">
-        <v>54395</v>
+        <v>53799</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EN_1011347_178657-118</t>
+          <t>EN_1422473_307378-10</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Woman Disruptor of the Year: While in attendance at the ASCO meeting in Chicago, Dr. Graff received the Woman Disruptor of the Year award for her positive advancements in the oncology community. Presented by Healio, the award is for a woman in the oncology field who has made a positive impact within the specialty and has also emerged as a leader and a role model for younger women in the field.</t>
+          <t>Nationwide Children's Hospital will only perform Sofia RSV testing on patients LESS than 7 years of age, as test sensitivity is low for older age groups. Results should be interpreted with caution.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B63" t="n">
-        <v>282257</v>
+        <v>785523</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ES_1047645_9651-15</t>
+          <t>EN_664352_14443-6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Con base en el análisis realizado, los resultados indican que las percepciones difieren entre hombres y mujeres con relación a la vivencia del deseo sexual y su relación con el amor, así como la relación que tienen con su propio cuerpo. En este apartado, se presentan los testimonios de los y las entrevistadas, los cruces en el sentir el deseo sexual, a través, por un lado, del reconocimiento de las sensaciones corporales y, por otro, de la experimentación de la masturbación. De acuerdo con Kaplan (1996), el momento de la adolescencia es un parteaguas en donde hombres y mujeres intentarán cumplir con las conductas sexuales esperadas según el contexto social en el que vivan, mezclado con el momento de la experimentación de cambios físicos y fisiológicos, que conllevan la urgencia de un cuerpo sexuado diferenciado por ser hombre o mujer joven. Las sensaciones corporales se viven de manera diferenciada para hombres y mujeres coincidiendo con lo que menciona Sanz (1999), donde para las jóvenes —hayan tenido o no relaciones sexuales— se evidencia una gran sensibilidad corporal y poca o nula en algunos casos sensibilidad genital. El hablar de los genitales con la naturalidad que lo hacen los chicos no es usual en el caso de las mujeres; de ellas se espera que hablen y expresen sus emociones. Es esta quizá una de las razones que aleja a las jóvenes de su propio cuerpo y las aleja también de experimentar el placer a temprana edad, como pueden hacerlo los varones. Incluso para algunas de ellas es más evidente la necesidad de cercanía vs. coito.</t>
+          <t>Laboratory Capacity Strengthening: CDC helps strengthen the quality of laboratory systems in Cambodia to accurately diagnose, monitor, and treat infections, including HIV/AIDS, COVID-19, TB, and influenza viruses. CDC also helped implement a laboratory quality management system and supports HIV hub laboratories to achieve international accreditation.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B64" t="n">
-        <v>1027605</v>
+        <v>817900</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ES_934791_123329-2</t>
+          <t>EN_570407_93287-14</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Forma en que se realiza el examen: Inmediatamente después de haber nacido el bebé, se sujeta el cordón con unas pinzas y se corta. Si se va a extraer sangre del cordón, se coloca otra pinza a una distancia de 8 a 10 pulgadas (20 a 25 centímetros) de la primera. Se corta la sección entre las pinzas y se recoge una muestra de sangre en un tubo para muestras.</t>
+          <t>Paul Offit, MD: Boys account for one-third of the cancers, head and neck, anal and genital cancers. So, of course boys can get cancer from HPV too, and they should be prevented from having to suffer that.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2226,108 +2226,108 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>318999</v>
+        <v>1054649</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ES_567614_66214-4</t>
+          <t>EN_644981_106126-24</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pero puede tomar medidas ahora para disminuir su riesgo. "Aproximadamente 1 de cada 3 personas en los Estados Unidos morirá de enfermedades cardíacas", dice el Dr. David C. Goff, Jr., experto en enfermedades cardíacas de NIH. "Y aproximadamente 6 de cada 10 de nosotros tendrá un evento importante de enfermedad cardíaca antes de morir". La enfermedad cardíaca se desarrolla cuando los vasos sanguíneos que suministran el corazón se obstruyen con depósitos de grasa o placa. Después de que los vasos sanguíneos se estrechan, se reduce el flujo de sangre al corazón. Eso significa que el oxígeno y los nutrientes no pueden llegar al corazón tan fácilmente. Eventualmente, un área de placa puede romperse. Esto puede causar que se forme un coágulo de sangre en la superficie de la placa.</t>
+          <t>Reviewed on Jan 12, 2023: Dr Lee consistently educates and explains in depth questions I have. He is always aware of my history and past cardiac history including any past complaints I may have had no matter how minor. He is amazing how up to date he is of my current diagnosis and any physical complaints I may have or have had.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B66" t="n">
-        <v>628752</v>
+        <v>518293</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ES_797842_103615-13</t>
+          <t>EN_852427_122076-0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Un valor de ACTH bajo con un valor de cortisol alto pueden significar que hay un problema con sus glándulas suprarrenales.</t>
+          <t>The newborn Apgar score is a quick way for your baby’s healthcare providers to assess your baby’s well-being immediately after birth. The Apgar score is a standard method used to determine if your baby needs immediate medical care. Your baby may need help breathing, may be having heart trouble or may have other medical needs related to transitioning from life in the womb.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B67" t="n">
-        <v>946350</v>
+        <v>648506</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EN_444819_64727-19</t>
+          <t>EN_560013_92319-7</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Magnarelli LA, Anderson JF, Johnson RC. Cross-reactivity in serological tests for Lyme disease and other spirochetal infections. J Infect Dis 1987;156:183-8. *A distinctive skin lesion that characterizes the first stage of the disease. **Neurologic and cardiac manifestations characterize the second stage of the disease, and arthritic manifestations, the third. These later stages can occur weeks or years after the initial tick bite and without evidence of an earlier skin lesion.</t>
+          <t>Once the babies were born, Dr. Heuer and Dr. Taylor could get an even clearer picture of precisely how the twins were joined and developed a plan that would involve a series of procedures over the several months, ultimately culminating in the separation surgery.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B68" t="n">
-        <v>465239</v>
+        <v>315851</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ES_4939_447-18</t>
+          <t>EN_1236983_280159-2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Riesgos: Numerosos estudios han concluido mínimas diferencias en el riesgo entre los tres medicamentos. Una de las preocupaciones es que hay una mayor probabilidad de infección con Avastin debido a la contaminación potencial cuando el medicamento se reempaca en dosis más pequeñas para el ojo. Cuando se siguen las directrices adecuadas para reempacar dichos medicamentos, el riesgo se minimiza. Además, “en la gran mayoría de los casos de infección ocular, la fuente es la superficie del ojo del paciente, más bien que el medicamento contaminado, o cualquier otra cosa”, sostiene el Dr. Abdish Bhavsar, vocero clínico de la Academia y especialista en retina.</t>
+          <t>The pattern of outbreaks varies widely in people with herpes. Some people carry the virus even though they've never had symptoms. Others may have only one outbreak or outbreaks that occur rarely. Some people have regular outbreaks that occur every 1 to 4 weeks.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2338,19 +2338,19 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B69" t="n">
-        <v>615641</v>
+        <v>826056</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ES_603112_75201-9</t>
+          <t>EN_878219_126294-5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>¿Vive en Pittsburgh y tiene fibrilación auricular? Este estudio está evaluando los efectos en la salud de un programa basado en teléfonos inteligentes, que estimula la conversación, y un dispositivo para monitorear la frecuencia y el ritmo cardíaco. Para participar en este estudio, debe tener al menos 21 años y recibir warfarina u otro medicamento similar para la fibrilación auricular. Haga clic en el nombre del ensayo para obtener más información en el sitio web de ensayos clínicos de los NIH (en inglés).</t>
+          <t>The survey was developed collaboratively by a team of patient advocacy groups, physicians, patients, caregivers, and survey methodologists and distributed in May 2022 to a nationally representative sample of 1,006 adult food allergy patients in the U. S. To be included in the study, participants self-reported a food allergy and also reported a history of at least one allergic reaction that was triggered by a food and involved two or more body systems. Such multi-system allergic reactions can be severe and can potentially become life-threatening.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2360,114 +2360,114 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B70" t="n">
-        <v>1010137</v>
+        <v>785527</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ES_603908_75274-2</t>
+          <t>EN_370819_57048-12</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>¿Usted o su hijo tiene PCD y desea ayudar a los investigadores a comprender mejor cómo se forman los cilios? El objetivo de este estudio es identificar los genes que controlan cómo se forman los cilios. Los cilios son estructuras de aspecto similar a un cabello que tapizan las vías respiratorias y protegen el pulmón normal. El estudio también identificará cómo las mutaciones de estos genes pueden causar PCD. Este estudio se lleva a cabo en Chapel Hill (Carolina del Norte). Haga clic en el nombre del ensayo para obtener más información en el sitio web de ensayos clínicos de los NIH (en inglés).</t>
+          <t>Trichloramine is a strong mucous membrane irritant (8) and has been associated with eye and respiratory tract irritation and asthma in swimmers and pool attendants (7). One study found that nonswimmers did not report symptoms until the trichloramine concentration reached 0.5 mg/m3, and all nonswimmers reported symptoms at 0.7 mg/m3 (1). The World Health Organization recommends an airborne trichloramine concentration of 0.5 mg/m3 as a provisional value (9). Currently, no NIOSH or Occupational Safety and Health Administration (OSHA) occupational exposure limits exist for airborne trichloramine.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B71" t="n">
-        <v>501853</v>
+        <v>728470</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EN_1270633_283006-10</t>
+          <t>EN_187364_46659-18</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ask your pharmacist any questions you have about oxytocin injection.</t>
+          <t>Smoking behavior. In the Smoking/Cigarette Questionnaire, women were asked, “Do you now smoke cigarettes?” and “Have you smoked at least 100 cigarettes in your entire life?” Women were classified as current smokers if they answered yes to both questions; otherwise, they were classified as noncurrent smokers (ie, former or never smokers).</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B72" t="n">
-        <v>981105</v>
+        <v>93593</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EN_434664_63850-16</t>
+          <t>EN_25240_25639-8</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Krawczynski K, Bradley DW. Enterically transmitted non-A, non-B hepatitis: identification of virus-associated antigen in experimentally infected cynomolgus macaques. J Infect Dis 1989;159:1042-9.</t>
+          <t>As the U.S. workforce continues to age, many older nurses continue to work in direct care. This role can pose safety and health hazards, yet research is limited on older nurses’ ability to safely perform direct care. To address this issue, the NIOSH-funded New York and New Jersey Education and Research Center recently looked at factors that influence aging nurses’ work ability.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B73" t="n">
-        <v>704538</v>
+        <v>946333</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EN_774584_115754-21</t>
+          <t>EN_1311749_291434-1647</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Store at room temperature below 30 degrees C (86 degrees F). Protect from light and moisture. Throw away any unused medication after the expiration date.</t>
+          <t>Fabry disease is an inherited disorder that results from the buildup of a type of fat, called globotriaosylceramide, in the body's cells. Beginning in childhood, this buildup causes signs and symptoms that affect many parts of the body. Characteristic features of Fabry disease include episodes of pain, particularly in the hands and feet (acroparesthesias); clusters of small, dark red spots on the skin called angiokeratomas; a decreased ability to sweat (hypohidrosis); cloudiness or streaks in the front part of the eye (corneal opacity or corneal verticillata); problems with the gastrointestinal system; ringing in the ears (tinnitus); and hearing loss. Additional signs and symptoms are possible, which can vary among affected individuals.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2478,47 +2478,47 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="B74" t="n">
-        <v>1034902</v>
+        <v>449986</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EN_239007_50381-172</t>
+          <t>EN_539084_88757-27</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Many partners who are notified of exposure to HIV do not receive counseling and testing. In one review, only 63% of notified partners were known to have been counseled and tested (16). One reason for this might be that partner services programs are unaware when partners are counseled and tested by another provider or receive counseling and testing at a later date.</t>
+          <t>AARC is a professional membership association for respiratory care professionals and allied health specialists interested in cardiopulmonary care.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[1, 0, 0, 1]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B75" t="n">
-        <v>264557</v>
+        <v>383031</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ES_711364_98719-0</t>
+          <t>EN_1189876_251954-3</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>¿Qué es el lupus: El lupus eritematoso sistémico, también conocido como LES o simplemente lupus, es una enfermedad que se caracteriza por episodios periódicos de inflamación y daño en articulaciones, tendones, otros tejidos conectivos y algunos órganos, incluyendo el corazón, los pulmones, los vasos sanguíneos, el cerebro, los riñones y la piel. El corazón, los pulmones, los riñones y el cerebro son los órganos más afectados. El lupus afecta a todas las personas de manera diferente y los efectos de la enfermedad oscilan desde leves a graves. El lupus es una enfermedad autoinmune. Cerca de un millón y medio de personas tiene algún tipo de lupus. Es mucho más frecuente en mujeres en edad de procrear, especialmente en mujeres afroamericanas.</t>
+          <t>Dr. Pereira's research interests include treatment of endstage heart failure, antibody-mediated rejection in heart transplant, cardiac allograft hypertrophy, functional genomics and pharmacogenomics.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2528,25 +2528,25 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B76" t="n">
-        <v>828541</v>
+        <v>676949</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ES_477546_63241-16</t>
+          <t>EN_869501_124006-8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Herencia: Para que un niño herede la fenilcetonuria, tanto la madre como el padre deben tener el gen alterado y trasmitirlo. Este patrón de herencia se denomina autosómico recesivo.</t>
+          <t>What should I watch for while using this medication: Visit your care team for regular checks on your progress. Your condition will be monitored carefully while you are receiving this medication. It is important not to miss any appointments.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2556,651 +2556,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B77" t="n">
-        <v>657426</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>ES_237241_39276-8</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Los síntomas comunes de una infección vaginal incluyen:\n- Aumento o cambio del flujo vaginal, incluido un flujo color gris, verde o amarillo.\n- Enrojecimiento, hinchazón, comezón o dolor en la vagina.\n- Olor vaginal.\n- Ardor al orinar.\n- Dolor o sangrado al tener relaciones sexuales..</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>[1, 0, 1, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B78" t="n">
-        <v>932160</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>EN_550514_90694-180</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Stallings VA. Social Preferences and Body Ideas Impact Growth, Nutrition and Health. Presented at: 3rd International Conference on Nutrition and Growth; 2016 Mar; Vienna, Austria.</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B79" t="n">
-        <v>400458</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ES_627777_87915-5</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>“Debido a la interpretación del fiscal general de la ley de Idaho, como se expresa en su carta, los médicos [...] se arriesgan a la responsabilidad legal y la suspensión de sus licencias médicas por el simple hecho de tener conversaciones francas con sus pacientes. Los médicos se ven incapaces de proporcionar su estándar de oro de atención médica, o incluso discutir dicha atención, por el riesgo de sanciones penales o revocaciones de licencias. En el mejor de los casos, la atención al paciente se retrasará mientras los médicos consultan a un abogado. En el peor de los casos, la atención al paciente se denegará por completo. Como resultado, los pacientes sufrirán consecuencias perjudiciales y totalmente evitables”.</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B80" t="n">
-        <v>451643</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ES_967583_125592-9</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>La HAD se puede medir en la sangre, pero para muchos laboratorios es difícil procesarla y obtener un resultado toma hasta dos semanas. La copeptina en suero puede ser utilizada para estimar el nivel de HAD en la sangre.</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B81" t="n">
-        <v>785558</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>EN_127599_43794-34</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Denise Koo reported in 1986 to 1993 6 outbreak-related illnesses per 100,000 passenger days. And in our study, the outbreak-related illnesses per 100,000 passenger days. And between '96 and 2000 3.5 outbreak-related illnesses per 100,000 passenger days.</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B82" t="n">
-        <v>618911</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>EN_458110_65771-12</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Galagan DJ, Vermillion JR. Determining optimum fluoride concentrations. Public Health Rep, 1957;72:491-3.</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B83" t="n">
-        <v>940821</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>EN_627209_103676-11</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Ferrarello, D., Froh, E.B., Hinson, T., &amp; Spatz. D.L. (2019). Nurses’ views on pasteurized donor human milk for hypoglycemic infants. Maternal Child Nursing. 44(3): 157-163.</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 1]</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B84" t="n">
-        <v>824653</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>EN_1005157_175788-0</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>This recipe is a wonderful way to add vegetables to your plate and tastes even better the next day! You can easily cut this recipe in half.</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B85" t="n">
-        <v>973925</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>EN_708205_110504-1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Below is a sample of immersion scheduling. The colored blocks represent inpatient or core elective rotations, and white blocks represent ambulatory blocks. Continuity clinic will occur three half-days a week during the ambulatory blocks.</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B86" t="n">
-        <v>123078</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>EN_460179_65947-31</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Sinatra FR, Shah P, Weissman JY, Thomas DW, Merritt RJ, Tong MJ. Peri- natal transmitted acute icteric hepatitis B in infants born to hepatitis B surface antigen-positive and anti-hepatitis Be-positive carrier mothers. Pediatrics 1982;70:557-9.</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B87" t="n">
-        <v>134734</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>EN_1073479_193147-7</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>If your baby vomits or spits up before finishing the bottle, he or she will not get the full dose of medication.</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 1]</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>ES_533943_64846-86</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Los pacientes con glioma difuso de línea media con alteración H3 K27 tienen el pronóstico más precario, con tasas de supervivencia a 3 años inferiores al 5 %.[48]</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B89" t="n">
-        <v>861810</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>ES_379980_46275-1</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>El equipo de atención de Mayo Clinic: En Mayo Clinic, los médicos oncólogos de adultos y niños, los oncólogos radioterápicos, los cirujanos ortopédicos que se especializan en el tratamiento del sarcoma, los patólogos, y los especialistas en medicina física y rehabilitación trabajan como un equipo multidisciplinario para atender a las personas que tienen sarcoma. Participan otros profesionales según sea necesario.</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 0]</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>EN_607595_99219-9</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>In order to avoid future allergic reactions – which could range from vomiting and hives to anaphylactic shock – Rani’s family needed to remain vigilant, avoiding exposure to her allergens. As time went on and Rani’s food options increased, the list of foods she was allergic to also grew.</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B91" t="n">
-        <v>34940</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>EN_1162111_20911-16</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>The line chart shows the estimated annual numbers of people treated for hepatitis C in the U.S. from 2014 to 2020. The number is highest in 2015, and lowest in 2020. In 2014, 109,110 people were treated; in 2015, 164,247 people were treated; in 2016, 134,287 people were treated; in 2017, 114,419 people were treated; in 2018, 122,666 people were treated; in 2019, 114,893 people were treated; in 2020, 83,740 people were treated.</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B92" t="n">
-        <v>427174</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>EN_646288_106251-12</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>What medications/treatments are used: People with vascular Ehlers-Danlos syndrome have a high risk of developing dangerous internal bleeding because of aneurysms and torn arteries. Because of this, you may need regular medical screenings to look for aneurysms if you have this condition. In some cases, you may need surgery to repair internal injuries or aneurysms. Pregnancy can also lead to a high risk of severe or life-threatening complications from this condition, such as rupture of the uterus or severe bleeding.</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>[1, 0, 1, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B93" t="n">
-        <v>309868</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>ES_104183_24052-0</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Las metas de aprendizaje y desarrollo que el visitador del hogar y los padres crean para el niño construyen una base para el éxito en la escuela y en la vida. Una relación segura, significativa y continua con un adulto dedicado proporciona un entorno saludable para el cerebro en desarrollo y exactamente los tipos de experiencias que el cerebro de los niños necesita para el aprendizaje. La preparación escolar comienza con la salud e incluye la identificación temprana de retrasos de audición, visión o físicos (p. ej., el desarrollo motor grueso y fino) u otros retrasos.</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B94" t="n">
-        <v>597850</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>EN_932238_155211-5</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Weaning does not have to be all-or-nothing. Some women choose to wean during the day and breastfeed at night, depending on their work situation and their schedules.</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>[0, 1, 1, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B95" t="n">
-        <v>400457</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>ES_559018_65665-82</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>A pesar de que suena como si el calcio fuera la causa de las piedras de calcio, no lo es. En las cantidades correctas, el calcio puede bloquear otras sustancias en el tubo digestivo que pueden causar piedras. Pregúntele a un profesional de la salud qué cantidad de calcio debe consumir para ayudar a evitar que se le formen más piedras de oxalato de calcio y para tener huesos fuertes. Lo recomendable es que obtenga calcio de alimentos de origen vegetal, como los jugos, cereales y panes enriquecidos con calcio; algunos tipos de vegetales; y algunos tipos de frijoles. Pregúntele a un dietista o a otro profesional de la salud cuáles alimentos son las mejores fuentes de calcio para usted.</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B96" t="n">
-        <v>952390</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>ES_685538_96704-1</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Esta página le ayuda a encontrar más información sobre beneficios, tarjetas Lone Star, licencias/credenciales y regulación, ayuda para descargar formularios, problemas con el sitio web y quejas de proveedores.</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B97" t="n">
-        <v>314604</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>ES_66500_15368-0</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Los bebés dependen de sus cuidadores para la comida, el cariño y el cuidado y para satisfacer necesidades tan básicas como comer, cambiar pañales, dormir y los vínculos afectivos. Pero cada bebé es único. Algunos bebés pueden tranquilizarse fácilmente y son capaces de calmarse rápidamente por sí solos. Otros pueden llorar con frecuencia o durante largos períodos de tiempo. Para prosperar, los bebés necesitan cuidadores que los protejan, se preocupen por ellos y sean receptivos. Un cuidador desarrolla una relación receptiva con un bebé respondiendo a su llanto, a sus balbuceos y a otros intentos de comunicación y proporcionándole lo que necesita. El desarrollo de los niños pequeños gira alrededor del cuidado o la relación receptiva. La estructura de su cerebro literalmente se forma con cada experiencia individual que tienen.</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 1]</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B98" t="n">
-        <v>220414</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ES_931110_123071-6</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>También puede ser causada por afecciones que interrumpen el flujo sanguíneo al riñón, tales como:\n- Ciertos tipos de cirugía\n- Lesión al riñón\n- Bloqueo de una arteria que suministra sangre al riñón (oclusión de la arteria renal).</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B99" t="n">
-        <v>946419</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>EN_1347670_294525-9</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Prior to therapy, other treatable causes of anemia must be ruled out. Iron deficiency should be corrected. Both oral and parenteral iron preparations are available.</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[1, 0, 1, 1]</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
